--- a/Input_files/Master_executors/LogixalQA/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/LogixalQA/MasterExecutor_Sanity.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_ReExecuteFailedTcs\Logixal_QA_Sanity\Input_files\Master_executors\LogixalQA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_ReExecuteFailedTcs\KAMAN_ECTEST_IE_SANITY\Input_files\Master_executors\LogixalQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9BD664-8AFA-407A-9518-55514447D78A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E30A56D-4832-43FE-91E5-2843955D88B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -250,16 +250,16 @@
 2. Verify Contact us page, Search filed and quick order link</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>TC30_Search_Typeahead</t>
   </si>
   <si>
     <t>RunMode</t>
   </si>
   <si>
-    <t>yes</t>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -411,7 +411,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{A444948E-6AA8-45F3-AB40-38513383CF85}"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBFBFBF"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -419,6 +427,14 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBFBFBF"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -764,10 +780,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -793,7 +810,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>1</v>
@@ -813,7 +830,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
@@ -833,7 +850,7 @@
         <v>67</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
@@ -853,7 +870,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
@@ -873,7 +890,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>9</v>
@@ -893,7 +910,7 @@
         <v>53</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>9</v>
@@ -913,7 +930,7 @@
         <v>25</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>9</v>
@@ -933,7 +950,7 @@
         <v>23</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
@@ -953,7 +970,7 @@
         <v>27</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>9</v>
@@ -973,7 +990,7 @@
         <v>29</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>9</v>
@@ -993,13 +1010,13 @@
         <v>31</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" hidden="1">
       <c r="A12" s="7" t="s">
         <v>5</v>
       </c>
@@ -1013,7 +1030,7 @@
         <v>43</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>9</v>
@@ -1033,7 +1050,7 @@
         <v>65</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>9</v>
@@ -1053,7 +1070,7 @@
         <v>33</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>9</v>
@@ -1073,7 +1090,7 @@
         <v>35</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>9</v>
@@ -1093,7 +1110,7 @@
         <v>37</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>9</v>
@@ -1113,7 +1130,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>9</v>
@@ -1133,13 +1150,13 @@
         <v>38</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" hidden="1">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -1153,13 +1170,13 @@
         <v>41</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" hidden="1">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -1173,13 +1190,13 @@
         <v>46</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="45">
+    <row r="21" spans="1:6" ht="45" hidden="1">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -1193,13 +1210,13 @@
         <v>49</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" hidden="1">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -1213,7 +1230,7 @@
         <v>51</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>9</v>
@@ -1233,7 +1250,7 @@
         <v>57</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>9</v>
@@ -1253,7 +1270,7 @@
         <v>58</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>9</v>
@@ -1273,7 +1290,7 @@
         <v>62</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>9</v>
@@ -1293,7 +1310,7 @@
         <v>20</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>9</v>
@@ -1313,7 +1330,7 @@
         <v>55</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>9</v>
@@ -1333,7 +1350,7 @@
         <v>18</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>9</v>
@@ -1347,13 +1364,13 @@
         <v>6</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>47</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>9</v>
@@ -1373,7 +1390,7 @@
         <v>17</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>9</v>
@@ -1393,7 +1410,7 @@
         <v>15</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>9</v>
@@ -1413,16 +1430,20 @@
         <v>60</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F32" xr:uid="{0B327FEE-E5EA-477B-A1F3-D80C8D24C0F5}"/>
+  <autoFilter ref="A1:F32" xr:uid="{0D4C77A2-9A39-4159-B1C1-B51140D8ED8E}">
+    <filterColumn colId="2">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="F21:F31">
-    <cfRule type="uniqueValues" dxfId="0" priority="4380"/>
+    <cfRule type="uniqueValues" dxfId="1" priority="4380"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Input_files/Master_executors/LogixalQA/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/LogixalQA/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_ReExecuteFailedTcs\KAMAN_ECTEST_IE_SANITY\Input_files\Master_executors\LogixalQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E30A56D-4832-43FE-91E5-2843955D88B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA76E69-AB3B-4007-A1CE-A5DE297FD350}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="MasterExecutor" sheetId="10" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MasterExecutor!$A$1:$F$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MasterExecutor!$A$1:$F$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="69">
   <si>
     <t>Functionality</t>
   </si>
@@ -166,12 +166,6 @@
     <t>Shipping page must appear</t>
   </si>
   <si>
-    <t>TC26_Verify_Clear_Cart</t>
-  </si>
-  <si>
-    <t>All the items must be removed from the cart</t>
-  </si>
-  <si>
     <t>TC16_Update_Quantity_CartPage</t>
   </si>
   <si>
@@ -257,9 +251,6 @@
   </si>
   <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
@@ -272,6 +263,13 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -300,15 +298,8 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,12 +315,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,51 +360,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{A444948E-6AA8-45F3-AB40-38513383CF85}"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFBFBFBF"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -427,14 +400,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFBFBFBF"/>
-          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -780,11 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -810,7 +774,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>1</v>
@@ -823,14 +787,14 @@
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
@@ -843,14 +807,14 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>66</v>
+      <c r="C3" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
@@ -863,14 +827,14 @@
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
@@ -883,14 +847,14 @@
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>9</v>
@@ -903,14 +867,14 @@
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>52</v>
+      <c r="C6" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>9</v>
@@ -923,14 +887,14 @@
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>9</v>
@@ -943,14 +907,14 @@
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
@@ -963,14 +927,14 @@
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>9</v>
@@ -983,14 +947,14 @@
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>9</v>
@@ -1003,114 +967,114 @@
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>31</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1">
+    <row r="12" spans="1:6">
       <c r="A12" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="30">
-      <c r="A14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="30">
-      <c r="A16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>37</v>
+      <c r="D16" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>9</v>
@@ -1123,14 +1087,14 @@
       <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="9" t="s">
+      <c r="C17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>9</v>
@@ -1143,94 +1107,94 @@
       <c r="B18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>38</v>
+      <c r="C18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>40</v>
+      <c r="C19" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1">
+    <row r="20" spans="1:6" ht="45">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>45</v>
+      <c r="C20" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="45" hidden="1">
+        <v>68</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1">
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>51</v>
+      <c r="C22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>9</v>
@@ -1243,14 +1207,14 @@
       <c r="B23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="14" t="s">
-        <v>59</v>
+      <c r="C23" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>9</v>
@@ -1263,34 +1227,34 @@
       <c r="B24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="14" t="s">
-        <v>56</v>
+      <c r="C24" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="14" t="s">
-        <v>63</v>
+      <c r="C25" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>9</v>
@@ -1303,14 +1267,14 @@
       <c r="B26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>20</v>
+      <c r="C26" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>9</v>
@@ -1323,14 +1287,14 @@
       <c r="B27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>55</v>
+      <c r="C27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>9</v>
@@ -1343,14 +1307,14 @@
       <c r="B28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>18</v>
+      <c r="C28" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>9</v>
@@ -1363,87 +1327,62 @@
       <c r="B29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>47</v>
+      <c r="C29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>17</v>
+      <c r="C30" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="45">
+    <row r="31" spans="1:6" ht="30">
       <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="12" t="s">
-        <v>14</v>
+      <c r="C31" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="30">
-      <c r="A32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F32" xr:uid="{0D4C77A2-9A39-4159-B1C1-B51140D8ED8E}">
-    <filterColumn colId="2">
-      <colorFilter dxfId="0"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="F21:F31">
-    <cfRule type="uniqueValues" dxfId="1" priority="4380"/>
+  <conditionalFormatting sqref="F20:F30">
+    <cfRule type="uniqueValues" dxfId="0" priority="4380"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Input_files/Master_executors/LogixalQA/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/LogixalQA/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_ReExecuteFailedTcs\KAMAN_ECTEST_IE_SANITY\Input_files\Master_executors\LogixalQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA76E69-AB3B-4007-A1CE-A5DE297FD350}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD280FC-5F2F-4617-916C-70BD9854A83A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="70">
   <si>
     <t>Functionality</t>
   </si>
@@ -251,6 +251,9 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -747,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -794,7 +797,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
@@ -814,7 +817,7 @@
         <v>65</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
@@ -834,7 +837,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
@@ -854,7 +857,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>9</v>
@@ -874,7 +877,7 @@
         <v>51</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>9</v>
@@ -894,7 +897,7 @@
         <v>25</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>9</v>
@@ -914,7 +917,7 @@
         <v>23</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
@@ -934,7 +937,7 @@
         <v>27</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>9</v>
@@ -954,7 +957,7 @@
         <v>29</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>9</v>
@@ -974,7 +977,7 @@
         <v>31</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>9</v>
@@ -994,7 +997,7 @@
         <v>63</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>9</v>
@@ -1014,7 +1017,7 @@
         <v>33</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>9</v>
@@ -1034,7 +1037,7 @@
         <v>35</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>9</v>
@@ -1054,7 +1057,7 @@
         <v>37</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>9</v>
@@ -1074,7 +1077,7 @@
         <v>38</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>9</v>
@@ -1094,7 +1097,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>9</v>
@@ -1114,7 +1117,7 @@
         <v>41</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>9</v>
@@ -1134,7 +1137,7 @@
         <v>44</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>9</v>
@@ -1154,7 +1157,7 @@
         <v>47</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>9</v>
@@ -1174,7 +1177,7 @@
         <v>49</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>9</v>
@@ -1194,7 +1197,7 @@
         <v>55</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>9</v>
@@ -1214,7 +1217,7 @@
         <v>56</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>9</v>
@@ -1234,7 +1237,7 @@
         <v>60</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>9</v>
@@ -1254,7 +1257,7 @@
         <v>20</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>9</v>
@@ -1274,7 +1277,7 @@
         <v>53</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>9</v>
@@ -1294,7 +1297,7 @@
         <v>18</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>9</v>
@@ -1314,7 +1317,7 @@
         <v>45</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>9</v>
@@ -1334,7 +1337,7 @@
         <v>17</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>9</v>
@@ -1374,7 +1377,7 @@
         <v>58</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>9</v>

--- a/Input_files/Master_executors/LogixalQA/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/LogixalQA/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_ReExecuteFailedTcs\KAMAN_ECTEST_IE_SANITY\Input_files\Master_executors\LogixalQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD280FC-5F2F-4617-916C-70BD9854A83A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0962300F-915B-47BC-873B-9DCF23481FD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -751,7 +751,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1357,7 +1357,7 @@
         <v>15</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>9</v>
@@ -1377,7 +1377,7 @@
         <v>58</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>9</v>

--- a/Input_files/Master_executors/LogixalQA/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/LogixalQA/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_ReExecuteFailedTcs\KAMAN_ECTEST_IE_SANITY\Input_files\Master_executors\LogixalQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0962300F-915B-47BC-873B-9DCF23481FD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036ED866-7BAA-4F2B-B56D-B15ACA1E814A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="MasterExecutor" sheetId="10" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MasterExecutor!$A$1:$F$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MasterExecutor!$A$1:$F$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="67">
   <si>
     <t>Functionality</t>
   </si>
@@ -218,13 +218,6 @@
     <t>TC02_Verify_MYACC</t>
   </si>
   <si>
-    <t>1. more than 10 Items should be added to cart
-2. Appropriate inventory message must be displayed</t>
-  </si>
-  <si>
-    <t>TC40_Adding_MultipleItems_QuickOrder</t>
-  </si>
-  <si>
     <t>Verify New registration</t>
   </si>
   <si>
@@ -251,9 +244,6 @@
   </si>
   <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
@@ -748,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -777,7 +767,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>1</v>
@@ -797,7 +787,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
@@ -811,13 +801,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
@@ -837,7 +827,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
@@ -857,7 +847,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>9</v>
@@ -877,7 +867,7 @@
         <v>51</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>9</v>
@@ -897,7 +887,7 @@
         <v>25</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>9</v>
@@ -917,7 +907,7 @@
         <v>23</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
@@ -937,7 +927,7 @@
         <v>27</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>9</v>
@@ -957,7 +947,7 @@
         <v>29</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>9</v>
@@ -977,7 +967,7 @@
         <v>31</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>9</v>
@@ -991,13 +981,13 @@
         <v>6</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>9</v>
@@ -1017,7 +1007,7 @@
         <v>33</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>9</v>
@@ -1037,7 +1027,7 @@
         <v>35</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>9</v>
@@ -1057,7 +1047,7 @@
         <v>37</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>9</v>
@@ -1077,7 +1067,7 @@
         <v>38</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>9</v>
@@ -1097,7 +1087,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>9</v>
@@ -1117,7 +1107,7 @@
         <v>41</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>9</v>
@@ -1137,7 +1127,7 @@
         <v>44</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>9</v>
@@ -1157,7 +1147,7 @@
         <v>47</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>9</v>
@@ -1177,7 +1167,7 @@
         <v>49</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>9</v>
@@ -1197,7 +1187,7 @@
         <v>55</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>9</v>
@@ -1217,7 +1207,7 @@
         <v>56</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>9</v>
@@ -1231,13 +1221,13 @@
         <v>6</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>9</v>
@@ -1257,7 +1247,7 @@
         <v>20</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>9</v>
@@ -1277,7 +1267,7 @@
         <v>53</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>9</v>
@@ -1297,7 +1287,7 @@
         <v>18</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>9</v>
@@ -1311,13 +1301,13 @@
         <v>6</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>9</v>
@@ -1337,7 +1327,7 @@
         <v>17</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>9</v>
@@ -1357,29 +1347,9 @@
         <v>15</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="30">
-      <c r="A31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F31" s="1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Input_files/Master_executors/LogixalQA/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/LogixalQA/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_ReExecuteFailedTcs\KAMAN_ECTEST_IE_SANITY\Input_files\Master_executors\LogixalQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036ED866-7BAA-4F2B-B56D-B15ACA1E814A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87251059-1DF2-40DA-A5C4-89493A347378}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="70">
   <si>
     <t>Functionality</t>
   </si>
@@ -218,6 +218,13 @@
     <t>TC02_Verify_MYACC</t>
   </si>
   <si>
+    <t>1. more than 10 Items should be added to cart
+2. Appropriate inventory message must be displayed</t>
+  </si>
+  <si>
+    <t>TC40_Adding_MultipleItems_QuickOrder</t>
+  </si>
+  <si>
     <t>Verify New registration</t>
   </si>
   <si>
@@ -244,13 +251,16 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -290,6 +300,13 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -355,7 +372,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -378,6 +395,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -738,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -767,7 +787,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>1</v>
@@ -787,7 +807,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
@@ -801,13 +821,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
@@ -827,7 +847,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
@@ -847,7 +867,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>9</v>
@@ -867,7 +887,7 @@
         <v>51</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>9</v>
@@ -887,7 +907,7 @@
         <v>25</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>9</v>
@@ -907,7 +927,7 @@
         <v>23</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
@@ -927,7 +947,7 @@
         <v>27</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>9</v>
@@ -947,7 +967,7 @@
         <v>29</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>9</v>
@@ -967,7 +987,7 @@
         <v>31</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>9</v>
@@ -981,13 +1001,13 @@
         <v>6</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>9</v>
@@ -1007,7 +1027,7 @@
         <v>33</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>9</v>
@@ -1027,7 +1047,7 @@
         <v>35</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>9</v>
@@ -1047,7 +1067,7 @@
         <v>37</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>9</v>
@@ -1067,7 +1087,7 @@
         <v>38</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>9</v>
@@ -1087,7 +1107,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>9</v>
@@ -1107,7 +1127,7 @@
         <v>41</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>9</v>
@@ -1127,7 +1147,7 @@
         <v>44</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>9</v>
@@ -1147,7 +1167,7 @@
         <v>47</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>9</v>
@@ -1167,7 +1187,7 @@
         <v>49</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>9</v>
@@ -1187,7 +1207,7 @@
         <v>55</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>9</v>
@@ -1207,7 +1227,7 @@
         <v>56</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>9</v>
@@ -1221,13 +1241,13 @@
         <v>6</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>9</v>
@@ -1247,7 +1267,7 @@
         <v>20</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>9</v>
@@ -1267,7 +1287,7 @@
         <v>53</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>9</v>
@@ -1287,7 +1307,7 @@
         <v>18</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>9</v>
@@ -1301,13 +1321,13 @@
         <v>6</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>9</v>
@@ -1327,7 +1347,7 @@
         <v>17</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>9</v>
@@ -1347,9 +1367,29 @@
         <v>15</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F30" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="30">
+      <c r="A31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Input_files/Master_executors/LogixalQA/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/LogixalQA/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_ReExecuteFailedTcs\KAMAN_ECTEST_IE_SANITY\Input_files\Master_executors\LogixalQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87251059-1DF2-40DA-A5C4-89493A347378}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2047D68-255C-4405-8534-D2BFBE0BC235}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="69">
   <si>
     <t>Functionality</t>
   </si>
@@ -251,16 +251,13 @@
   </si>
   <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -300,13 +297,6 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -372,7 +362,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -395,9 +385,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -760,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -807,7 +794,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
@@ -827,7 +814,7 @@
         <v>65</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
@@ -847,7 +834,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
@@ -867,7 +854,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>9</v>
@@ -887,7 +874,7 @@
         <v>51</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>9</v>
@@ -907,7 +894,7 @@
         <v>25</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>9</v>
@@ -927,7 +914,7 @@
         <v>23</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
@@ -947,7 +934,7 @@
         <v>27</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>9</v>
@@ -967,7 +954,7 @@
         <v>29</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>9</v>
@@ -987,7 +974,7 @@
         <v>31</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>9</v>
@@ -1007,7 +994,7 @@
         <v>63</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>9</v>
@@ -1027,7 +1014,7 @@
         <v>33</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>9</v>
@@ -1047,7 +1034,7 @@
         <v>35</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>9</v>
@@ -1067,7 +1054,7 @@
         <v>37</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>9</v>
@@ -1087,7 +1074,7 @@
         <v>38</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>9</v>
@@ -1107,7 +1094,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>9</v>
@@ -1127,7 +1114,7 @@
         <v>41</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>9</v>
@@ -1147,7 +1134,7 @@
         <v>44</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>9</v>
@@ -1167,7 +1154,7 @@
         <v>47</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>9</v>
@@ -1187,7 +1174,7 @@
         <v>49</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>9</v>
@@ -1207,7 +1194,7 @@
         <v>55</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>9</v>
@@ -1227,7 +1214,7 @@
         <v>56</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>9</v>
@@ -1247,7 +1234,7 @@
         <v>60</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>9</v>
@@ -1267,7 +1254,7 @@
         <v>20</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>9</v>
@@ -1287,7 +1274,7 @@
         <v>53</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>9</v>
@@ -1307,7 +1294,7 @@
         <v>18</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>9</v>
@@ -1327,7 +1314,7 @@
         <v>45</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>9</v>
@@ -1347,7 +1334,7 @@
         <v>17</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>9</v>
@@ -1367,7 +1354,7 @@
         <v>15</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>9</v>
@@ -1380,7 +1367,7 @@
       <c r="B31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="11" t="s">
         <v>59</v>
       </c>
       <c r="D31" s="10" t="s">

--- a/Input_files/Master_executors/LogixalQA/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/LogixalQA/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_ReExecuteFailedTcs\KAMAN_ECTEST_IE_SANITY\Input_files\Master_executors\LogixalQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2047D68-255C-4405-8534-D2BFBE0BC235}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DC3806-5CE4-44DA-930E-94FB5B51EB68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -250,7 +250,7 @@
     <t>RunMode</t>
   </si>
   <si>
-    <t>Yes</t>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -747,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Input_files/Master_executors/LogixalQA/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/LogixalQA/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_ReExecuteFailedTcs\KAMAN_ECTEST_IE_SANITY\Input_files\Master_executors\LogixalQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DC3806-5CE4-44DA-930E-94FB5B51EB68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9587263-F75C-4B30-8669-57C14DCEF7D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -250,7 +250,7 @@
     <t>RunMode</t>
   </si>
   <si>
-    <t>No</t>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -747,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
